--- a/biology/Médecine/Eleanor_Mariano/Eleanor_Mariano.xlsx
+++ b/biology/Médecine/Eleanor_Mariano/Eleanor_Mariano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Eleanor Concepcion "Connie" Mariano est une médecin philippino-américaine et ancien officier de l'United States Navy. Elle a été la première philippino-américaine à accéder au rang de rear admiral[1] et la première femme à devenir la directrice de l'Unité médicale de la Maison-Blanche de 1991 à 2001 [2],[3]. Elle est aussi connue pour avoir écrit The White House Doctor: My Patients Were Presidents - A Memoir, son autobiographie consacrée à retracer son expérience de médecin de la Maison-Blanche[4],[5]. Elle provoque le scandale en évoquant l'obésité du gouverneur du New Jersey Chris Christie, qui lui attire des critiques notamment du camp républicain[6].
+Eleanor Concepcion "Connie" Mariano est une médecin philippino-américaine et ancien officier de l'United States Navy. Elle a été la première philippino-américaine à accéder au rang de rear admiral et la première femme à devenir la directrice de l'Unité médicale de la Maison-Blanche de 1991 à 2001 ,. Elle est aussi connue pour avoir écrit The White House Doctor: My Patients Were Presidents - A Memoir, son autobiographie consacrée à retracer son expérience de médecin de la Maison-Blanche,. Elle provoque le scandale en évoquant l'obésité du gouverneur du New Jersey Chris Christie, qui lui attire des critiques notamment du camp républicain.
 </t>
         </is>
       </c>
